--- a/output_checks.xlsx
+++ b/output_checks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <col width="31.2" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="28.8" customWidth="1" min="7" max="7"/>
-    <col width="37.2" customWidth="1" min="8" max="8"/>
+    <col width="19.2" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -508,7 +508,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -770,220 +770,10 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Not</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>apache/juneau</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>apache/servicecomb-kie</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>armadaplatform/armada</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>LoadBalancing and Scalability</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>kriswep/graphql-microservices</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ASSERT-KTH/royal-chaos</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>Not present</t>
         </is>
